--- a/biology/Histoire de la zoologie et de la botanique/Francis_Orpen_Morris/Francis_Orpen_Morris.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Francis_Orpen_Morris/Francis_Orpen_Morris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Francis Orpen Morris (25 mars 1810 – 10 février 1893) est un pasteur irlandais, ornithologue, entomologiste et botaniste, auteur de nombreux ouvrages sur l'histoire naturelle et sur le patrimoine architectural britannique. Il a notamment écrit The County Seats of the Noblemen and Gentlemen of Great Britain and Ireland.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Francis Orpen Morris est le fils aîné de l'amiral Henry Gage Morris et de son épouse Rebecca, fille de Francis Orpen, vicaire du village de Kilgarvan dans le comté de Kerry. Morris passe ses premières années sur la côte ouest de l'Irlande, où il manifeste très tôt son amour de la nature. La famille va ensuite s'installer en Angleterre à partir de 1824, d'abord à Worcester puis à Charmouth, dans le comté de Dorset, en 1826.
 Au Worcester College d'Oxford, Morris obtient son diplôme en 1833. Entre autres sujets, il étudie l'Histoire naturelle de Pline l'Ancien. Il fait la connaissance de l'entomologiste James Duncan (1804-1861), auteur de British Butterflies, et participe au classement de la collection d'insectes de l'Ashmolean Museum.
@@ -547,9 +561,11 @@
           <t>Opinions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Francis Orpen Morris passe pour avoir un caractère intransigeant, aux opinions tranchées : antiféministe, conservateur, il réprouve la chasse au renard et toute autre forme de destruction de la vie sauvage. Adversaire de l'évolutionnisme défini par Charles Darwin, il s'oppose également à Thomas Huxley, qu'il accuse de pratiquer la vivisection. Il milite pour le respect et la conservation de la nature et finit par obtenir gain de cause[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Francis Orpen Morris passe pour avoir un caractère intransigeant, aux opinions tranchées : antiféministe, conservateur, il réprouve la chasse au renard et toute autre forme de destruction de la vie sauvage. Adversaire de l'évolutionnisme défini par Charles Darwin, il s'oppose également à Thomas Huxley, qu'il accuse de pratiquer la vivisection. Il milite pour le respect et la conservation de la nature et finit par obtenir gain de cause.
 </t>
         </is>
       </c>
@@ -579,6 +595,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -604,7 +622,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1834 Guide to an Arrangement of British Birds – 20 pp., Longmarts.
 1849 A Bible Natural History. Groombridge.
@@ -618,7 +638,7 @@
 1860 Anecdotes of Natural History. Longroans.
 1861 Records of Animal Sagacity and Character. Longroans.
 1865 A Catalogue of British Insects in all the Orders. 125 pp., Longmarts.
-1868 The Ancestral Homes of Britain, containing examples of its noblest castles, halls and mansions, rééd. et complété dans The County Seats (1880)[2]
+1868 The Ancestral Homes of Britain, containing examples of its noblest castles, halls and mansions, rééd. et complété dans The County Seats (1880)
 1869 Difficulties of Darwinism.
 1870 Dogs and their Doings. Partridge.
 1875 All the Articles of the Darwin Faith.
